--- a/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A8365-9C4D-4CA3-952F-DCDD5131B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465CF1D-093C-4CE0-B20F-B98A8EBC96FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غزر-صنعتی زر ماکارون</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-05-06 (2)</t>
-  </si>
-  <si>
-    <t>1399-08-18 (2)</t>
-  </si>
-  <si>
-    <t>1399-10-23</t>
-  </si>
-  <si>
-    <t>1401-04-16 (8)</t>
-  </si>
-  <si>
-    <t>1400-04-30</t>
-  </si>
-  <si>
-    <t>1400-09-01 (2)</t>
-  </si>
-  <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-10-29 (7)</t>
   </si>
   <si>
     <t>1401-05-04 (2)</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>568651</v>
+        <v>219251</v>
       </c>
       <c r="E12" s="15">
-        <v>193373</v>
+        <v>597068</v>
       </c>
       <c r="F12" s="15">
-        <v>655583</v>
+        <v>1052149</v>
       </c>
       <c r="G12" s="15">
-        <v>257065</v>
+        <v>628595</v>
       </c>
       <c r="H12" s="15">
-        <v>569939</v>
-      </c>
-      <c r="I12" s="15">
-        <v>433607</v>
-      </c>
-      <c r="J12" s="15">
-        <v>219251</v>
-      </c>
-      <c r="K12" s="15">
-        <v>597068</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1052149</v>
-      </c>
-      <c r="M12" s="15">
-        <v>628595</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>679136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>422</v>
+        <v>487560</v>
       </c>
       <c r="E13" s="11">
-        <v>422</v>
+        <v>487561</v>
       </c>
       <c r="F13" s="11">
-        <v>16372</v>
+        <v>487561</v>
       </c>
       <c r="G13" s="11">
-        <v>87114</v>
+        <v>487561</v>
       </c>
       <c r="H13" s="11">
-        <v>463674</v>
-      </c>
-      <c r="I13" s="11">
-        <v>487575</v>
-      </c>
-      <c r="J13" s="11">
-        <v>487560</v>
-      </c>
-      <c r="K13" s="11">
-        <v>487561</v>
-      </c>
-      <c r="L13" s="11">
-        <v>487561</v>
-      </c>
-      <c r="M13" s="11">
-        <v>487561</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>312096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>2710519</v>
+        <v>11906179</v>
       </c>
       <c r="E14" s="15">
-        <v>7610776</v>
+        <v>5793124</v>
       </c>
       <c r="F14" s="15">
-        <v>6978896</v>
+        <v>11138040</v>
       </c>
       <c r="G14" s="15">
-        <v>7820736</v>
+        <v>12231983</v>
       </c>
       <c r="H14" s="15">
-        <v>12785471</v>
-      </c>
-      <c r="I14" s="15">
-        <v>10963363</v>
-      </c>
-      <c r="J14" s="15">
-        <v>11906179</v>
-      </c>
-      <c r="K14" s="15">
-        <v>6207483</v>
-      </c>
-      <c r="L14" s="15">
-        <v>11138040</v>
-      </c>
-      <c r="M14" s="15">
-        <v>13267632</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>16054825</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>974768</v>
+        <v>1582526</v>
       </c>
       <c r="E15" s="11">
-        <v>1442604</v>
+        <v>1509421</v>
       </c>
       <c r="F15" s="11">
-        <v>1515842</v>
+        <v>2532146</v>
       </c>
       <c r="G15" s="11">
-        <v>1558471</v>
+        <v>2819741</v>
       </c>
       <c r="H15" s="11">
-        <v>1667732</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1167301</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1582526</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1509421</v>
-      </c>
-      <c r="L15" s="11">
-        <v>2532146</v>
-      </c>
-      <c r="M15" s="11">
-        <v>2819741</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2694384</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>3142332</v>
+        <v>8983930</v>
       </c>
       <c r="E16" s="15">
-        <v>2808073</v>
+        <v>10365187</v>
       </c>
       <c r="F16" s="15">
-        <v>5243273</v>
+        <v>9104861</v>
       </c>
       <c r="G16" s="15">
-        <v>5522708</v>
+        <v>9293090</v>
       </c>
       <c r="H16" s="15">
-        <v>6425673</v>
-      </c>
-      <c r="I16" s="15">
-        <v>7230483</v>
-      </c>
-      <c r="J16" s="15">
-        <v>8983930</v>
-      </c>
-      <c r="K16" s="15">
-        <v>9950828</v>
-      </c>
-      <c r="L16" s="15">
-        <v>9104861</v>
-      </c>
-      <c r="M16" s="15">
-        <v>9194524</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7708918</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1151,61 +969,31 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>7396692</v>
+        <v>23179446</v>
       </c>
       <c r="E18" s="17">
-        <v>12055248</v>
+        <v>18752361</v>
       </c>
       <c r="F18" s="17">
-        <v>14409966</v>
+        <v>24314757</v>
       </c>
       <c r="G18" s="17">
-        <v>15246094</v>
+        <v>25460970</v>
       </c>
       <c r="H18" s="17">
-        <v>21912489</v>
-      </c>
-      <c r="I18" s="17">
-        <v>20282329</v>
-      </c>
-      <c r="J18" s="17">
-        <v>23179446</v>
-      </c>
-      <c r="K18" s="17">
-        <v>18752361</v>
-      </c>
-      <c r="L18" s="17">
-        <v>24314757</v>
-      </c>
-      <c r="M18" s="17">
-        <v>26398053</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>27449359</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1223,61 +1011,31 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>1786</v>
+        <v>2563</v>
       </c>
       <c r="E20" s="15">
-        <v>1786</v>
+        <v>418920</v>
       </c>
       <c r="F20" s="15">
-        <v>1786</v>
+        <v>874155</v>
       </c>
       <c r="G20" s="15">
-        <v>2363</v>
+        <v>854355</v>
       </c>
       <c r="H20" s="15">
-        <v>2363</v>
-      </c>
-      <c r="I20" s="15">
-        <v>2363</v>
-      </c>
-      <c r="J20" s="15">
-        <v>2563</v>
-      </c>
-      <c r="K20" s="15">
-        <v>418920</v>
-      </c>
-      <c r="L20" s="15">
-        <v>874155</v>
-      </c>
-      <c r="M20" s="15">
-        <v>418355</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>418877</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,133 +1053,73 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1057778</v>
+        <v>1092553</v>
       </c>
       <c r="E22" s="15">
-        <v>1010112</v>
+        <v>1816106</v>
       </c>
       <c r="F22" s="15">
-        <v>1030283</v>
+        <v>2216837</v>
       </c>
       <c r="G22" s="15">
-        <v>1144794</v>
+        <v>2303219</v>
       </c>
       <c r="H22" s="15">
-        <v>1102753</v>
-      </c>
-      <c r="I22" s="15">
-        <v>1118786</v>
-      </c>
-      <c r="J22" s="15">
-        <v>1092553</v>
-      </c>
-      <c r="K22" s="15">
-        <v>1816106</v>
-      </c>
-      <c r="L22" s="15">
-        <v>2216837</v>
-      </c>
-      <c r="M22" s="15">
-        <v>2303219</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2413866</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>15192</v>
+        <v>23293</v>
       </c>
       <c r="E23" s="11">
-        <v>13581</v>
+        <v>67571</v>
       </c>
       <c r="F23" s="11">
-        <v>12173</v>
+        <v>64199</v>
       </c>
       <c r="G23" s="11">
-        <v>29899</v>
+        <v>64149</v>
       </c>
       <c r="H23" s="11">
-        <v>26611</v>
-      </c>
-      <c r="I23" s="11">
-        <v>24952</v>
-      </c>
-      <c r="J23" s="11">
-        <v>23293</v>
-      </c>
-      <c r="K23" s="11">
-        <v>67571</v>
-      </c>
-      <c r="L23" s="11">
-        <v>64199</v>
-      </c>
-      <c r="M23" s="11">
-        <v>64149</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>59910</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1439,97 +1137,52 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1074756</v>
+        <v>1118409</v>
       </c>
       <c r="E26" s="17">
-        <v>1025479</v>
+        <v>2302597</v>
       </c>
       <c r="F26" s="17">
-        <v>1044242</v>
+        <v>3155191</v>
       </c>
       <c r="G26" s="17">
-        <v>1177056</v>
+        <v>3221723</v>
       </c>
       <c r="H26" s="17">
-        <v>1131727</v>
-      </c>
-      <c r="I26" s="17">
-        <v>1146101</v>
-      </c>
-      <c r="J26" s="17">
-        <v>1118409</v>
-      </c>
-      <c r="K26" s="17">
-        <v>2302597</v>
-      </c>
-      <c r="L26" s="17">
-        <v>3155191</v>
-      </c>
-      <c r="M26" s="17">
-        <v>2785723</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2892653</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>8471448</v>
+        <v>24297855</v>
       </c>
       <c r="E27" s="19">
-        <v>13080727</v>
+        <v>21054958</v>
       </c>
       <c r="F27" s="19">
-        <v>15454208</v>
+        <v>27469948</v>
       </c>
       <c r="G27" s="19">
-        <v>16423150</v>
+        <v>28682693</v>
       </c>
       <c r="H27" s="19">
-        <v>23044216</v>
-      </c>
-      <c r="I27" s="19">
-        <v>21428430</v>
-      </c>
-      <c r="J27" s="19">
-        <v>24297855</v>
-      </c>
-      <c r="K27" s="19">
-        <v>21054958</v>
-      </c>
-      <c r="L27" s="19">
-        <v>27469948</v>
-      </c>
-      <c r="M27" s="19">
-        <v>29183776</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30342012</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,231 +1190,136 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1041852</v>
+        <v>8883232</v>
       </c>
       <c r="E29" s="15">
-        <v>996250</v>
+        <v>4829895</v>
       </c>
       <c r="F29" s="15">
-        <v>1850456</v>
+        <v>9828725</v>
       </c>
       <c r="G29" s="15">
-        <v>1422982</v>
+        <v>7159553</v>
       </c>
       <c r="H29" s="15">
-        <v>5665556</v>
-      </c>
-      <c r="I29" s="15">
-        <v>5730582</v>
-      </c>
-      <c r="J29" s="15">
-        <v>8883232</v>
-      </c>
-      <c r="K29" s="15">
-        <v>5332863</v>
-      </c>
-      <c r="L29" s="15">
-        <v>9828725</v>
-      </c>
-      <c r="M29" s="15">
-        <v>7835200</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7320809</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>88225</v>
+        <v>105867</v>
       </c>
       <c r="E31" s="15">
-        <v>162306</v>
+        <v>158472</v>
       </c>
       <c r="F31" s="15">
-        <v>179047</v>
+        <v>154159</v>
       </c>
       <c r="G31" s="15">
-        <v>276930</v>
+        <v>167693</v>
       </c>
       <c r="H31" s="15">
-        <v>468125</v>
-      </c>
-      <c r="I31" s="15">
-        <v>183304</v>
-      </c>
-      <c r="J31" s="15">
-        <v>105867</v>
-      </c>
-      <c r="K31" s="15">
-        <v>158472</v>
-      </c>
-      <c r="L31" s="15">
-        <v>154159</v>
-      </c>
-      <c r="M31" s="15">
-        <v>167693</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>259182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>632376</v>
+        <v>450749</v>
       </c>
       <c r="E32" s="11">
-        <v>652902</v>
+        <v>548304</v>
       </c>
       <c r="F32" s="11">
-        <v>550334</v>
+        <v>391401</v>
       </c>
       <c r="G32" s="11">
-        <v>1308577</v>
+        <v>976885</v>
       </c>
       <c r="H32" s="11">
-        <v>752562</v>
-      </c>
-      <c r="I32" s="11">
-        <v>561393</v>
-      </c>
-      <c r="J32" s="11">
-        <v>450749</v>
-      </c>
-      <c r="K32" s="11">
-        <v>45336</v>
-      </c>
-      <c r="L32" s="11">
-        <v>391401</v>
-      </c>
-      <c r="M32" s="11">
-        <v>682729</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>894322</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>22617</v>
+        <v>74668</v>
       </c>
       <c r="E33" s="15">
-        <v>592771</v>
+        <v>52047</v>
       </c>
       <c r="F33" s="15">
-        <v>518454</v>
+        <v>51945</v>
       </c>
       <c r="G33" s="15">
-        <v>19125</v>
+        <v>344702</v>
       </c>
       <c r="H33" s="15">
-        <v>18990</v>
-      </c>
-      <c r="I33" s="15">
-        <v>77070</v>
-      </c>
-      <c r="J33" s="15">
-        <v>74668</v>
-      </c>
-      <c r="K33" s="15">
-        <v>52047</v>
-      </c>
-      <c r="L33" s="15">
-        <v>51945</v>
-      </c>
-      <c r="M33" s="15">
-        <v>344703</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>239235</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>1968007</v>
+        <v>2493421</v>
       </c>
       <c r="E34" s="11">
-        <v>5253955</v>
+        <v>3375463</v>
       </c>
       <c r="F34" s="11">
-        <v>5129856</v>
+        <v>2742536</v>
       </c>
       <c r="G34" s="11">
-        <v>5502884</v>
+        <v>5600271</v>
       </c>
       <c r="H34" s="11">
-        <v>5654980</v>
-      </c>
-      <c r="I34" s="11">
-        <v>3698564</v>
-      </c>
-      <c r="J34" s="11">
-        <v>2493421</v>
-      </c>
-      <c r="K34" s="11">
-        <v>3375463</v>
-      </c>
-      <c r="L34" s="11">
-        <v>2742536</v>
-      </c>
-      <c r="M34" s="11">
-        <v>5600271</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5761613</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1779,25 +1337,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,61 +1358,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>3753077</v>
+        <v>12007937</v>
       </c>
       <c r="E37" s="17">
-        <v>7658184</v>
+        <v>8964181</v>
       </c>
       <c r="F37" s="17">
-        <v>8228147</v>
+        <v>13168766</v>
       </c>
       <c r="G37" s="17">
-        <v>8530498</v>
+        <v>14249104</v>
       </c>
       <c r="H37" s="17">
-        <v>12560213</v>
-      </c>
-      <c r="I37" s="17">
-        <v>10250913</v>
-      </c>
-      <c r="J37" s="17">
-        <v>12007937</v>
-      </c>
-      <c r="K37" s="17">
-        <v>8964181</v>
-      </c>
-      <c r="L37" s="17">
-        <v>13168766</v>
-      </c>
-      <c r="M37" s="17">
-        <v>14630596</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14475161</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1887,61 +1400,31 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1959,35 +1442,20 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="E41" s="15">
-        <v>11661</v>
+        <v>0</v>
       </c>
       <c r="F41" s="15">
-        <v>14973</v>
+        <v>0</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -1995,35 +1463,20 @@
       <c r="H41" s="15">
         <v>0</v>
       </c>
-      <c r="I41" s="15">
-        <v>0</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="E42" s="19">
-        <v>11661</v>
+        <v>0</v>
       </c>
       <c r="F42" s="19">
-        <v>14973</v>
+        <v>0</v>
       </c>
       <c r="G42" s="19">
         <v>0</v>
@@ -2031,61 +1484,31 @@
       <c r="H42" s="19">
         <v>0</v>
       </c>
-      <c r="I42" s="19">
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
-        <v>0</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>3759247</v>
+        <v>12007937</v>
       </c>
       <c r="E43" s="17">
-        <v>7669845</v>
+        <v>8964181</v>
       </c>
       <c r="F43" s="17">
-        <v>8243120</v>
+        <v>13168766</v>
       </c>
       <c r="G43" s="17">
-        <v>8530498</v>
+        <v>14249104</v>
       </c>
       <c r="H43" s="17">
-        <v>12560213</v>
-      </c>
-      <c r="I43" s="17">
-        <v>10250913</v>
-      </c>
-      <c r="J43" s="17">
-        <v>12007937</v>
-      </c>
-      <c r="K43" s="17">
-        <v>8964181</v>
-      </c>
-      <c r="L43" s="17">
-        <v>13168766</v>
-      </c>
-      <c r="M43" s="17">
-        <v>14630596</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14475161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>1600000</v>
+        <v>8000000</v>
       </c>
       <c r="E45" s="15">
-        <v>1600000</v>
+        <v>8000000</v>
       </c>
       <c r="F45" s="15">
-        <v>1600000</v>
+        <v>8000000</v>
       </c>
       <c r="G45" s="15">
-        <v>3200000</v>
+        <v>8000000</v>
       </c>
       <c r="H45" s="15">
-        <v>3200000</v>
-      </c>
-      <c r="I45" s="15">
         <v>8000000</v>
       </c>
-      <c r="J45" s="15">
-        <v>8000000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>8000000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>8000000</v>
-      </c>
-      <c r="M45" s="15">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2191,61 +1579,31 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-812049</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-812049</v>
       </c>
       <c r="G48" s="11">
-        <v>-812060</v>
+        <v>-770206</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-812049</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-812049</v>
-      </c>
-      <c r="M48" s="11">
-        <v>-812049</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-770206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2255,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>-1845</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -2263,61 +1621,31 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>-1845</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>147621</v>
+        <v>320000</v>
       </c>
       <c r="E50" s="11">
-        <v>147621</v>
+        <v>569198</v>
       </c>
       <c r="F50" s="11">
-        <v>160000</v>
+        <v>679718</v>
       </c>
       <c r="G50" s="11">
-        <v>320000</v>
+        <v>569198</v>
       </c>
       <c r="H50" s="11">
-        <v>320000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>462844</v>
-      </c>
-      <c r="J50" s="11">
-        <v>320000</v>
-      </c>
-      <c r="K50" s="11">
         <v>569198</v>
       </c>
-      <c r="L50" s="11">
-        <v>679718</v>
-      </c>
-      <c r="M50" s="11">
-        <v>718318</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1663,31 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2407,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2964580</v>
+        <v>3969918</v>
       </c>
       <c r="E56" s="11">
-        <v>3663261</v>
+        <v>4333628</v>
       </c>
       <c r="F56" s="11">
-        <v>5451088</v>
+        <v>6435358</v>
       </c>
       <c r="G56" s="11">
-        <v>5184712</v>
+        <v>6634597</v>
       </c>
       <c r="H56" s="11">
-        <v>6964003</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2714673</v>
-      </c>
-      <c r="J56" s="11">
-        <v>3969918</v>
-      </c>
-      <c r="K56" s="11">
-        <v>4333628</v>
-      </c>
-      <c r="L56" s="11">
-        <v>6435358</v>
-      </c>
-      <c r="M56" s="11">
-        <v>6646911</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8067859</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>4712201</v>
+        <v>12289918</v>
       </c>
       <c r="E57" s="17">
-        <v>5410882</v>
+        <v>12090777</v>
       </c>
       <c r="F57" s="17">
-        <v>7211088</v>
+        <v>14301182</v>
       </c>
       <c r="G57" s="17">
-        <v>7892652</v>
+        <v>14433589</v>
       </c>
       <c r="H57" s="17">
-        <v>10484003</v>
-      </c>
-      <c r="I57" s="17">
-        <v>11177517</v>
-      </c>
-      <c r="J57" s="17">
-        <v>12289918</v>
-      </c>
-      <c r="K57" s="17">
-        <v>12090777</v>
-      </c>
-      <c r="L57" s="17">
-        <v>14301182</v>
-      </c>
-      <c r="M57" s="17">
-        <v>14553180</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15866851</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>8471448</v>
+        <v>24297855</v>
       </c>
       <c r="E58" s="19">
-        <v>13080727</v>
+        <v>21054958</v>
       </c>
       <c r="F58" s="19">
-        <v>15454208</v>
+        <v>27469948</v>
       </c>
       <c r="G58" s="19">
-        <v>16423150</v>
+        <v>28682693</v>
       </c>
       <c r="H58" s="19">
-        <v>23044216</v>
-      </c>
-      <c r="I58" s="19">
-        <v>21428430</v>
-      </c>
-      <c r="J58" s="19">
-        <v>24297855</v>
-      </c>
-      <c r="K58" s="19">
-        <v>21054958</v>
-      </c>
-      <c r="L58" s="19">
-        <v>27469948</v>
-      </c>
-      <c r="M58" s="19">
-        <v>29183776</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30342012</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465CF1D-093C-4CE0-B20F-B98A8EBC96FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AB1E4-5041-4CFB-B773-67DBA995E2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-08-18 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-23</t>
+  </si>
+  <si>
+    <t>1401-04-16 (8)</t>
+  </si>
+  <si>
+    <t>1400-04-30</t>
+  </si>
+  <si>
+    <t>1400-09-01 (2)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>193373</v>
+      </c>
+      <c r="E12" s="15">
+        <v>655583</v>
+      </c>
+      <c r="F12" s="15">
+        <v>257065</v>
+      </c>
+      <c r="G12" s="15">
+        <v>569939</v>
+      </c>
+      <c r="H12" s="15">
+        <v>433607</v>
+      </c>
+      <c r="I12" s="15">
         <v>219251</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>597068</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>1052149</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>628595</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>679136</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>422</v>
+      </c>
+      <c r="E13" s="11">
+        <v>16372</v>
+      </c>
+      <c r="F13" s="11">
+        <v>87114</v>
+      </c>
+      <c r="G13" s="11">
+        <v>463674</v>
+      </c>
+      <c r="H13" s="11">
+        <v>487575</v>
+      </c>
+      <c r="I13" s="11">
         <v>487560</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>487561</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>487561</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>487561</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>312096</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>7610776</v>
+      </c>
+      <c r="E14" s="15">
+        <v>6978896</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7820736</v>
+      </c>
+      <c r="G14" s="15">
+        <v>12785471</v>
+      </c>
+      <c r="H14" s="15">
+        <v>10963363</v>
+      </c>
+      <c r="I14" s="15">
         <v>11906179</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>5793124</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>11138040</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>12231983</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>16054825</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1442604</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1515842</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1558471</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1667732</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1167301</v>
+      </c>
+      <c r="I15" s="11">
         <v>1582526</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>1509421</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>2532146</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>2819741</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>2694384</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>2808073</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5243273</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5522708</v>
+      </c>
+      <c r="G16" s="15">
+        <v>6425673</v>
+      </c>
+      <c r="H16" s="15">
+        <v>7230483</v>
+      </c>
+      <c r="I16" s="15">
         <v>8983930</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>10365187</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>9104861</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>9293090</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>7708918</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1151,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>12055248</v>
+      </c>
+      <c r="E18" s="17">
+        <v>14409966</v>
+      </c>
+      <c r="F18" s="17">
+        <v>15246094</v>
+      </c>
+      <c r="G18" s="17">
+        <v>21912489</v>
+      </c>
+      <c r="H18" s="17">
+        <v>20282329</v>
+      </c>
+      <c r="I18" s="17">
         <v>23179446</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>18752361</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>24314757</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>25460970</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>27449359</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,31 +1223,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>1786</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1786</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2363</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2363</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2363</v>
+      </c>
+      <c r="I20" s="15">
         <v>2563</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>418920</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>874155</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>854355</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>418877</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,73 +1295,133 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>1010112</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1030283</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1144794</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1102753</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1118786</v>
+      </c>
+      <c r="I22" s="15">
         <v>1092553</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>1816106</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>2216837</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>2303219</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>2413866</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>13581</v>
+      </c>
+      <c r="E23" s="11">
+        <v>12173</v>
+      </c>
+      <c r="F23" s="11">
+        <v>29899</v>
+      </c>
+      <c r="G23" s="11">
+        <v>26611</v>
+      </c>
+      <c r="H23" s="11">
+        <v>24952</v>
+      </c>
+      <c r="I23" s="11">
         <v>23293</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>67571</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>64199</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>64149</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>59910</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>1025479</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1044242</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1177056</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1131727</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1146101</v>
+      </c>
+      <c r="I26" s="17">
         <v>1118409</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>2302597</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>3155191</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>3221723</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>2892653</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>13080727</v>
+      </c>
+      <c r="E27" s="19">
+        <v>15454208</v>
+      </c>
+      <c r="F27" s="19">
+        <v>16423150</v>
+      </c>
+      <c r="G27" s="19">
+        <v>23044216</v>
+      </c>
+      <c r="H27" s="19">
+        <v>21428430</v>
+      </c>
+      <c r="I27" s="19">
         <v>24297855</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>21054958</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>27469948</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>28682693</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>30342012</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1537,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>996250</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1850456</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1422982</v>
+      </c>
+      <c r="G29" s="15">
+        <v>5665556</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5730582</v>
+      </c>
+      <c r="I29" s="15">
         <v>8883232</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>4829895</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>9828725</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>7159553</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>7320809</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>162306</v>
+      </c>
+      <c r="E31" s="15">
+        <v>179047</v>
+      </c>
+      <c r="F31" s="15">
+        <v>276930</v>
+      </c>
+      <c r="G31" s="15">
+        <v>468125</v>
+      </c>
+      <c r="H31" s="15">
+        <v>183304</v>
+      </c>
+      <c r="I31" s="15">
         <v>105867</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>158472</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>154159</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>167693</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>259182</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>652902</v>
+      </c>
+      <c r="E32" s="11">
+        <v>550334</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1308577</v>
+      </c>
+      <c r="G32" s="11">
+        <v>752562</v>
+      </c>
+      <c r="H32" s="11">
+        <v>561393</v>
+      </c>
+      <c r="I32" s="11">
         <v>450749</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>548304</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>391401</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>976885</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>894322</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>592771</v>
+      </c>
+      <c r="E33" s="15">
+        <v>518454</v>
+      </c>
+      <c r="F33" s="15">
+        <v>19125</v>
+      </c>
+      <c r="G33" s="15">
+        <v>18990</v>
+      </c>
+      <c r="H33" s="15">
+        <v>77070</v>
+      </c>
+      <c r="I33" s="15">
         <v>74668</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>52047</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>51945</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>344702</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>239235</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>5253955</v>
+      </c>
+      <c r="E34" s="11">
+        <v>5129856</v>
+      </c>
+      <c r="F34" s="11">
+        <v>5502884</v>
+      </c>
+      <c r="G34" s="11">
+        <v>5654980</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3698564</v>
+      </c>
+      <c r="I34" s="11">
         <v>2493421</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>3375463</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>2742536</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>5600271</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>5761613</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>7658184</v>
+      </c>
+      <c r="E37" s="17">
+        <v>8228147</v>
+      </c>
+      <c r="F37" s="17">
+        <v>8530498</v>
+      </c>
+      <c r="G37" s="17">
+        <v>12560213</v>
+      </c>
+      <c r="H37" s="17">
+        <v>10250913</v>
+      </c>
+      <c r="I37" s="17">
         <v>12007937</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>8964181</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>13168766</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>14249104</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>14475161</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,31 +1887,61 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,17 +1959,32 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>0</v>
+        <v>11661</v>
       </c>
       <c r="E41" s="15">
-        <v>0</v>
+        <v>14973</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
@@ -1463,17 +1995,32 @@
       <c r="H41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>0</v>
+        <v>11661</v>
       </c>
       <c r="E42" s="19">
-        <v>0</v>
+        <v>14973</v>
       </c>
       <c r="F42" s="19">
         <v>0</v>
@@ -1484,31 +2031,61 @@
       <c r="H42" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>7669845</v>
+      </c>
+      <c r="E43" s="17">
+        <v>8243120</v>
+      </c>
+      <c r="F43" s="17">
+        <v>8530498</v>
+      </c>
+      <c r="G43" s="17">
+        <v>12560213</v>
+      </c>
+      <c r="H43" s="17">
+        <v>10250913</v>
+      </c>
+      <c r="I43" s="17">
         <v>12007937</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>8964181</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>13168766</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>14249104</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>14475161</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>8000000</v>
+        <v>1600000</v>
       </c>
       <c r="E45" s="15">
-        <v>8000000</v>
+        <v>1600000</v>
       </c>
       <c r="F45" s="15">
-        <v>8000000</v>
+        <v>3200000</v>
       </c>
       <c r="G45" s="15">
-        <v>8000000</v>
+        <v>3200000</v>
       </c>
       <c r="H45" s="15">
         <v>8000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>8000000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>8000000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>8000000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>8000000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,31 +2191,61 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-812060</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
         <v>-812049</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-812049</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-770206</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-770206</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1613,39 +2255,69 @@
         <v>0</v>
       </c>
       <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
         <v>-1845</v>
       </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>147621</v>
+      </c>
+      <c r="E50" s="11">
+        <v>160000</v>
+      </c>
+      <c r="F50" s="11">
         <v>320000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>320000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>462844</v>
+      </c>
+      <c r="I50" s="11">
+        <v>320000</v>
+      </c>
+      <c r="J50" s="11">
         <v>569198</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>679718</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>569198</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>569198</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>3663261</v>
+      </c>
+      <c r="E56" s="11">
+        <v>5451088</v>
+      </c>
+      <c r="F56" s="11">
+        <v>5184712</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6964003</v>
+      </c>
+      <c r="H56" s="11">
+        <v>2714673</v>
+      </c>
+      <c r="I56" s="11">
         <v>3969918</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>4333628</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>6435358</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>6634597</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>8067859</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>5410882</v>
+      </c>
+      <c r="E57" s="17">
+        <v>7211088</v>
+      </c>
+      <c r="F57" s="17">
+        <v>7892652</v>
+      </c>
+      <c r="G57" s="17">
+        <v>10484003</v>
+      </c>
+      <c r="H57" s="17">
+        <v>11177517</v>
+      </c>
+      <c r="I57" s="17">
         <v>12289918</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>12090777</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>14301182</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>14433589</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>15866851</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>13080727</v>
+      </c>
+      <c r="E58" s="19">
+        <v>15454208</v>
+      </c>
+      <c r="F58" s="19">
+        <v>16423150</v>
+      </c>
+      <c r="G58" s="19">
+        <v>23044216</v>
+      </c>
+      <c r="H58" s="19">
+        <v>21428430</v>
+      </c>
+      <c r="I58" s="19">
         <v>24297855</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>21054958</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>27469948</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>28682693</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>30342012</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AB1E4-5041-4CFB-B773-67DBA995E2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F2D88D-5977-4E6A-B5BF-B376BDF9AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-08-18 (2)</t>
-  </si>
-  <si>
     <t>1399-10-23</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-28 (8)</t>
   </si>
   <si>
     <t>1401-05-04 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,64 +952,64 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>193373</v>
+        <v>655583</v>
       </c>
       <c r="E12" s="15">
-        <v>655583</v>
+        <v>257065</v>
       </c>
       <c r="F12" s="15">
-        <v>257065</v>
+        <v>569939</v>
       </c>
       <c r="G12" s="15">
-        <v>569939</v>
+        <v>433607</v>
       </c>
       <c r="H12" s="15">
-        <v>433607</v>
+        <v>219251</v>
       </c>
       <c r="I12" s="15">
-        <v>219251</v>
+        <v>597068</v>
       </c>
       <c r="J12" s="15">
-        <v>597068</v>
+        <v>1052149</v>
       </c>
       <c r="K12" s="15">
-        <v>1052149</v>
+        <v>628595</v>
       </c>
       <c r="L12" s="15">
-        <v>628595</v>
+        <v>679136</v>
       </c>
       <c r="M12" s="15">
-        <v>679136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>876515</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>422</v>
+        <v>16372</v>
       </c>
       <c r="E13" s="11">
-        <v>16372</v>
+        <v>87114</v>
       </c>
       <c r="F13" s="11">
-        <v>87114</v>
+        <v>463674</v>
       </c>
       <c r="G13" s="11">
-        <v>463674</v>
+        <v>487575</v>
       </c>
       <c r="H13" s="11">
-        <v>487575</v>
+        <v>487560</v>
       </c>
       <c r="I13" s="11">
-        <v>487560</v>
+        <v>487561</v>
       </c>
       <c r="J13" s="11">
         <v>487561</v>
@@ -1017,121 +1018,121 @@
         <v>487561</v>
       </c>
       <c r="L13" s="11">
-        <v>487561</v>
+        <v>312096</v>
       </c>
       <c r="M13" s="11">
-        <v>312096</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>312513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>7610776</v>
+        <v>6978896</v>
       </c>
       <c r="E14" s="15">
-        <v>6978896</v>
+        <v>7820736</v>
       </c>
       <c r="F14" s="15">
-        <v>7820736</v>
+        <v>12785471</v>
       </c>
       <c r="G14" s="15">
-        <v>12785471</v>
+        <v>10963363</v>
       </c>
       <c r="H14" s="15">
-        <v>10963363</v>
+        <v>11906179</v>
       </c>
       <c r="I14" s="15">
-        <v>11906179</v>
+        <v>6207483</v>
       </c>
       <c r="J14" s="15">
-        <v>5793124</v>
+        <v>11138040</v>
       </c>
       <c r="K14" s="15">
-        <v>11138040</v>
+        <v>12231983</v>
       </c>
       <c r="L14" s="15">
-        <v>12231983</v>
+        <v>16054825</v>
       </c>
       <c r="M14" s="15">
-        <v>16054825</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17199012</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1442604</v>
+        <v>1515842</v>
       </c>
       <c r="E15" s="11">
-        <v>1515842</v>
+        <v>1558471</v>
       </c>
       <c r="F15" s="11">
-        <v>1558471</v>
+        <v>1667732</v>
       </c>
       <c r="G15" s="11">
-        <v>1667732</v>
+        <v>1167301</v>
       </c>
       <c r="H15" s="11">
-        <v>1167301</v>
+        <v>1582526</v>
       </c>
       <c r="I15" s="11">
-        <v>1582526</v>
+        <v>1509421</v>
       </c>
       <c r="J15" s="11">
-        <v>1509421</v>
+        <v>2532146</v>
       </c>
       <c r="K15" s="11">
-        <v>2532146</v>
+        <v>2819741</v>
       </c>
       <c r="L15" s="11">
-        <v>2819741</v>
+        <v>2694384</v>
       </c>
       <c r="M15" s="11">
-        <v>2694384</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2440807</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>2808073</v>
+        <v>5243273</v>
       </c>
       <c r="E16" s="15">
-        <v>5243273</v>
+        <v>5522708</v>
       </c>
       <c r="F16" s="15">
-        <v>5522708</v>
+        <v>6425673</v>
       </c>
       <c r="G16" s="15">
-        <v>6425673</v>
+        <v>7230483</v>
       </c>
       <c r="H16" s="15">
-        <v>7230483</v>
+        <v>8983930</v>
       </c>
       <c r="I16" s="15">
-        <v>8983930</v>
+        <v>9950829</v>
       </c>
       <c r="J16" s="15">
-        <v>10365187</v>
+        <v>9104861</v>
       </c>
       <c r="K16" s="15">
-        <v>9104861</v>
+        <v>9293090</v>
       </c>
       <c r="L16" s="15">
-        <v>9293090</v>
+        <v>7708918</v>
       </c>
       <c r="M16" s="15">
-        <v>7708918</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7504654</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,43 +1168,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>12055248</v>
+        <v>14409966</v>
       </c>
       <c r="E18" s="17">
-        <v>14409966</v>
+        <v>15246094</v>
       </c>
       <c r="F18" s="17">
-        <v>15246094</v>
+        <v>21912489</v>
       </c>
       <c r="G18" s="17">
-        <v>21912489</v>
+        <v>20282329</v>
       </c>
       <c r="H18" s="17">
-        <v>20282329</v>
+        <v>23179446</v>
       </c>
       <c r="I18" s="17">
-        <v>23179446</v>
+        <v>18752362</v>
       </c>
       <c r="J18" s="17">
-        <v>18752361</v>
+        <v>24314757</v>
       </c>
       <c r="K18" s="17">
-        <v>24314757</v>
+        <v>25460970</v>
       </c>
       <c r="L18" s="17">
-        <v>25460970</v>
+        <v>27449359</v>
       </c>
       <c r="M18" s="17">
-        <v>27449359</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>28333501</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>1786</v>
       </c>
       <c r="E20" s="15">
-        <v>1786</v>
+        <v>2363</v>
       </c>
       <c r="F20" s="15">
         <v>2363</v>
@@ -1257,25 +1258,25 @@
         <v>2363</v>
       </c>
       <c r="H20" s="15">
-        <v>2363</v>
+        <v>2563</v>
       </c>
       <c r="I20" s="15">
-        <v>2563</v>
+        <v>418920</v>
       </c>
       <c r="J20" s="15">
-        <v>418920</v>
+        <v>874155</v>
       </c>
       <c r="K20" s="15">
-        <v>874155</v>
+        <v>854355</v>
       </c>
       <c r="L20" s="15">
-        <v>854355</v>
+        <v>418877</v>
       </c>
       <c r="M20" s="15">
-        <v>418877</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1065820</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1010112</v>
+        <v>1030283</v>
       </c>
       <c r="E22" s="15">
-        <v>1030283</v>
+        <v>1144794</v>
       </c>
       <c r="F22" s="15">
-        <v>1144794</v>
+        <v>1102753</v>
       </c>
       <c r="G22" s="15">
-        <v>1102753</v>
+        <v>1118786</v>
       </c>
       <c r="H22" s="15">
-        <v>1118786</v>
+        <v>1092553</v>
       </c>
       <c r="I22" s="15">
-        <v>1092553</v>
+        <v>1816106</v>
       </c>
       <c r="J22" s="15">
-        <v>1816106</v>
+        <v>2216837</v>
       </c>
       <c r="K22" s="15">
-        <v>2216837</v>
+        <v>2303219</v>
       </c>
       <c r="L22" s="15">
-        <v>2303219</v>
+        <v>2413866</v>
       </c>
       <c r="M22" s="15">
-        <v>2413866</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9550205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>13581</v>
+        <v>12173</v>
       </c>
       <c r="E23" s="11">
-        <v>12173</v>
+        <v>29899</v>
       </c>
       <c r="F23" s="11">
-        <v>29899</v>
+        <v>26611</v>
       </c>
       <c r="G23" s="11">
-        <v>26611</v>
+        <v>24952</v>
       </c>
       <c r="H23" s="11">
-        <v>24952</v>
+        <v>23293</v>
       </c>
       <c r="I23" s="11">
-        <v>23293</v>
+        <v>67571</v>
       </c>
       <c r="J23" s="11">
-        <v>67571</v>
+        <v>64199</v>
       </c>
       <c r="K23" s="11">
-        <v>64199</v>
+        <v>64149</v>
       </c>
       <c r="L23" s="11">
-        <v>64149</v>
+        <v>59910</v>
       </c>
       <c r="M23" s="11">
-        <v>59910</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>56771</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1025479</v>
+        <v>1044242</v>
       </c>
       <c r="E26" s="17">
-        <v>1044242</v>
+        <v>1177056</v>
       </c>
       <c r="F26" s="17">
-        <v>1177056</v>
+        <v>1131727</v>
       </c>
       <c r="G26" s="17">
-        <v>1131727</v>
+        <v>1146101</v>
       </c>
       <c r="H26" s="17">
-        <v>1146101</v>
+        <v>1118409</v>
       </c>
       <c r="I26" s="17">
-        <v>1118409</v>
+        <v>2302597</v>
       </c>
       <c r="J26" s="17">
-        <v>2302597</v>
+        <v>3155191</v>
       </c>
       <c r="K26" s="17">
-        <v>3155191</v>
+        <v>3221723</v>
       </c>
       <c r="L26" s="17">
-        <v>3221723</v>
+        <v>2892653</v>
       </c>
       <c r="M26" s="17">
-        <v>2892653</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10672796</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>13080727</v>
+        <v>15454208</v>
       </c>
       <c r="E27" s="19">
-        <v>15454208</v>
+        <v>16423150</v>
       </c>
       <c r="F27" s="19">
-        <v>16423150</v>
+        <v>23044216</v>
       </c>
       <c r="G27" s="19">
-        <v>23044216</v>
+        <v>21428430</v>
       </c>
       <c r="H27" s="19">
-        <v>21428430</v>
+        <v>24297855</v>
       </c>
       <c r="I27" s="19">
-        <v>24297855</v>
+        <v>21054959</v>
       </c>
       <c r="J27" s="19">
-        <v>21054958</v>
+        <v>27469948</v>
       </c>
       <c r="K27" s="19">
-        <v>27469948</v>
+        <v>28682693</v>
       </c>
       <c r="L27" s="19">
-        <v>28682693</v>
+        <v>30342012</v>
       </c>
       <c r="M27" s="19">
-        <v>30342012</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>39006297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>996250</v>
+        <v>1850456</v>
       </c>
       <c r="E29" s="15">
-        <v>1850456</v>
+        <v>1422982</v>
       </c>
       <c r="F29" s="15">
-        <v>1422982</v>
+        <v>5665556</v>
       </c>
       <c r="G29" s="15">
-        <v>5665556</v>
+        <v>5730582</v>
       </c>
       <c r="H29" s="15">
-        <v>5730582</v>
+        <v>8883232</v>
       </c>
       <c r="I29" s="15">
-        <v>8883232</v>
+        <v>5332863</v>
       </c>
       <c r="J29" s="15">
-        <v>4829895</v>
+        <v>9828725</v>
       </c>
       <c r="K29" s="15">
-        <v>9828725</v>
+        <v>7159553</v>
       </c>
       <c r="L29" s="15">
-        <v>7159553</v>
+        <v>7320809</v>
       </c>
       <c r="M29" s="15">
-        <v>7320809</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6480159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,151 +1616,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>162306</v>
+        <v>179047</v>
       </c>
       <c r="E31" s="15">
-        <v>179047</v>
+        <v>276930</v>
       </c>
       <c r="F31" s="15">
-        <v>276930</v>
+        <v>468125</v>
       </c>
       <c r="G31" s="15">
-        <v>468125</v>
+        <v>183304</v>
       </c>
       <c r="H31" s="15">
-        <v>183304</v>
+        <v>105867</v>
       </c>
       <c r="I31" s="15">
-        <v>105867</v>
+        <v>158472</v>
       </c>
       <c r="J31" s="15">
-        <v>158472</v>
+        <v>154159</v>
       </c>
       <c r="K31" s="15">
-        <v>154159</v>
+        <v>167693</v>
       </c>
       <c r="L31" s="15">
-        <v>167693</v>
+        <v>259182</v>
       </c>
       <c r="M31" s="15">
-        <v>259182</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>348033</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>652902</v>
+        <v>550334</v>
       </c>
       <c r="E32" s="11">
-        <v>550334</v>
+        <v>1308577</v>
       </c>
       <c r="F32" s="11">
-        <v>1308577</v>
+        <v>752562</v>
       </c>
       <c r="G32" s="11">
-        <v>752562</v>
+        <v>561393</v>
       </c>
       <c r="H32" s="11">
-        <v>561393</v>
+        <v>450749</v>
       </c>
       <c r="I32" s="11">
-        <v>450749</v>
+        <v>45336</v>
       </c>
       <c r="J32" s="11">
-        <v>548304</v>
+        <v>391401</v>
       </c>
       <c r="K32" s="11">
-        <v>391401</v>
+        <v>976885</v>
       </c>
       <c r="L32" s="11">
-        <v>976885</v>
+        <v>894322</v>
       </c>
       <c r="M32" s="11">
-        <v>894322</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>81059</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>592771</v>
+        <v>518454</v>
       </c>
       <c r="E33" s="15">
-        <v>518454</v>
+        <v>19125</v>
       </c>
       <c r="F33" s="15">
-        <v>19125</v>
+        <v>18990</v>
       </c>
       <c r="G33" s="15">
-        <v>18990</v>
+        <v>77070</v>
       </c>
       <c r="H33" s="15">
-        <v>77070</v>
+        <v>74668</v>
       </c>
       <c r="I33" s="15">
-        <v>74668</v>
+        <v>52047</v>
       </c>
       <c r="J33" s="15">
-        <v>52047</v>
+        <v>51945</v>
       </c>
       <c r="K33" s="15">
-        <v>51945</v>
+        <v>344702</v>
       </c>
       <c r="L33" s="15">
-        <v>344702</v>
+        <v>239235</v>
       </c>
       <c r="M33" s="15">
-        <v>239235</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>95780</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>5253955</v>
+        <v>5129856</v>
       </c>
       <c r="E34" s="11">
-        <v>5129856</v>
+        <v>5502884</v>
       </c>
       <c r="F34" s="11">
-        <v>5502884</v>
+        <v>5654980</v>
       </c>
       <c r="G34" s="11">
-        <v>5654980</v>
+        <v>3698564</v>
       </c>
       <c r="H34" s="11">
-        <v>3698564</v>
+        <v>2493421</v>
       </c>
       <c r="I34" s="11">
-        <v>2493421</v>
+        <v>3375463</v>
       </c>
       <c r="J34" s="11">
-        <v>3375463</v>
+        <v>2742536</v>
       </c>
       <c r="K34" s="11">
-        <v>2742536</v>
+        <v>5600271</v>
       </c>
       <c r="L34" s="11">
-        <v>5600271</v>
+        <v>5761613</v>
       </c>
       <c r="M34" s="11">
-        <v>5761613</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5221109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>7658184</v>
+        <v>8228147</v>
       </c>
       <c r="E37" s="17">
-        <v>8228147</v>
+        <v>8530498</v>
       </c>
       <c r="F37" s="17">
-        <v>8530498</v>
+        <v>12560213</v>
       </c>
       <c r="G37" s="17">
-        <v>12560213</v>
+        <v>10250913</v>
       </c>
       <c r="H37" s="17">
-        <v>10250913</v>
+        <v>12007937</v>
       </c>
       <c r="I37" s="17">
-        <v>12007937</v>
+        <v>8964181</v>
       </c>
       <c r="J37" s="17">
-        <v>8964181</v>
+        <v>13168766</v>
       </c>
       <c r="K37" s="17">
-        <v>13168766</v>
+        <v>14249104</v>
       </c>
       <c r="L37" s="17">
-        <v>14249104</v>
+        <v>14475161</v>
       </c>
       <c r="M37" s="17">
-        <v>14475161</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12226140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,16 +1976,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>11661</v>
+        <v>14973</v>
       </c>
       <c r="E41" s="15">
-        <v>14973</v>
+        <v>0</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
@@ -2011,16 +2012,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>11661</v>
+        <v>14973</v>
       </c>
       <c r="E42" s="19">
-        <v>14973</v>
+        <v>0</v>
       </c>
       <c r="F42" s="19">
         <v>0</v>
@@ -2044,46 +2045,46 @@
         <v>0</v>
       </c>
       <c r="M42" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>861364</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>7669845</v>
+        <v>8243120</v>
       </c>
       <c r="E43" s="17">
-        <v>8243120</v>
+        <v>8530498</v>
       </c>
       <c r="F43" s="17">
-        <v>8530498</v>
+        <v>12560213</v>
       </c>
       <c r="G43" s="17">
-        <v>12560213</v>
+        <v>10250913</v>
       </c>
       <c r="H43" s="17">
-        <v>10250913</v>
+        <v>12007937</v>
       </c>
       <c r="I43" s="17">
-        <v>12007937</v>
+        <v>8964181</v>
       </c>
       <c r="J43" s="17">
-        <v>8964181</v>
+        <v>13168766</v>
       </c>
       <c r="K43" s="17">
-        <v>13168766</v>
+        <v>14249104</v>
       </c>
       <c r="L43" s="17">
-        <v>14249104</v>
+        <v>14475161</v>
       </c>
       <c r="M43" s="17">
-        <v>14475161</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13087504</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2108,13 +2109,13 @@
         <v>1600000</v>
       </c>
       <c r="E45" s="15">
-        <v>1600000</v>
+        <v>3200000</v>
       </c>
       <c r="F45" s="15">
         <v>3200000</v>
       </c>
       <c r="G45" s="15">
-        <v>3200000</v>
+        <v>8000000</v>
       </c>
       <c r="H45" s="15">
         <v>8000000</v>
@@ -2132,10 +2133,10 @@
         <v>8000000</v>
       </c>
       <c r="M45" s="15">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2216,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-812060</v>
       </c>
       <c r="F48" s="11">
-        <v>-812060</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -2228,22 +2229,22 @@
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>0</v>
+        <v>-812049</v>
       </c>
       <c r="J48" s="11">
         <v>-812049</v>
       </c>
       <c r="K48" s="11">
-        <v>-812049</v>
+        <v>-770206</v>
       </c>
       <c r="L48" s="11">
         <v>-770206</v>
       </c>
       <c r="M48" s="11">
-        <v>-770206</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-729354</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2267,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="15">
-        <v>0</v>
+        <v>-1845</v>
       </c>
       <c r="K49" s="15">
-        <v>-1845</v>
+        <v>0</v>
       </c>
       <c r="L49" s="15">
         <v>0</v>
@@ -2279,43 +2280,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>147621</v>
+        <v>160000</v>
       </c>
       <c r="E50" s="11">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="F50" s="11">
         <v>320000</v>
       </c>
       <c r="G50" s="11">
+        <v>462844</v>
+      </c>
+      <c r="H50" s="11">
         <v>320000</v>
       </c>
-      <c r="H50" s="11">
-        <v>462844</v>
-      </c>
       <c r="I50" s="11">
-        <v>320000</v>
+        <v>569198</v>
       </c>
       <c r="J50" s="11">
+        <v>679718</v>
+      </c>
+      <c r="K50" s="11">
         <v>569198</v>
-      </c>
-      <c r="K50" s="11">
-        <v>679718</v>
       </c>
       <c r="L50" s="11">
         <v>569198</v>
       </c>
       <c r="M50" s="11">
-        <v>569198</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>952187</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>3663261</v>
+        <v>5451088</v>
       </c>
       <c r="E56" s="11">
-        <v>5451088</v>
+        <v>5184712</v>
       </c>
       <c r="F56" s="11">
-        <v>5184712</v>
+        <v>6964003</v>
       </c>
       <c r="G56" s="11">
-        <v>6964003</v>
+        <v>2714673</v>
       </c>
       <c r="H56" s="11">
-        <v>2714673</v>
+        <v>3969918</v>
       </c>
       <c r="I56" s="11">
-        <v>3969918</v>
+        <v>4333629</v>
       </c>
       <c r="J56" s="11">
-        <v>4333628</v>
+        <v>6435358</v>
       </c>
       <c r="K56" s="11">
-        <v>6435358</v>
+        <v>6634597</v>
       </c>
       <c r="L56" s="11">
-        <v>6634597</v>
+        <v>8067859</v>
       </c>
       <c r="M56" s="11">
-        <v>8067859</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7695960</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>5410882</v>
+        <v>7211088</v>
       </c>
       <c r="E57" s="17">
-        <v>7211088</v>
+        <v>7892652</v>
       </c>
       <c r="F57" s="17">
-        <v>7892652</v>
+        <v>10484003</v>
       </c>
       <c r="G57" s="17">
-        <v>10484003</v>
+        <v>11177517</v>
       </c>
       <c r="H57" s="17">
-        <v>11177517</v>
+        <v>12289918</v>
       </c>
       <c r="I57" s="17">
-        <v>12289918</v>
+        <v>12090778</v>
       </c>
       <c r="J57" s="17">
-        <v>12090777</v>
+        <v>14301182</v>
       </c>
       <c r="K57" s="17">
-        <v>14301182</v>
+        <v>14433589</v>
       </c>
       <c r="L57" s="17">
-        <v>14433589</v>
+        <v>15866851</v>
       </c>
       <c r="M57" s="17">
-        <v>15866851</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>25918793</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>13080727</v>
+        <v>15454208</v>
       </c>
       <c r="E58" s="19">
-        <v>15454208</v>
+        <v>16423150</v>
       </c>
       <c r="F58" s="19">
-        <v>16423150</v>
+        <v>23044216</v>
       </c>
       <c r="G58" s="19">
-        <v>23044216</v>
+        <v>21428430</v>
       </c>
       <c r="H58" s="19">
-        <v>21428430</v>
+        <v>24297855</v>
       </c>
       <c r="I58" s="19">
-        <v>24297855</v>
+        <v>21054959</v>
       </c>
       <c r="J58" s="19">
-        <v>21054958</v>
+        <v>27469948</v>
       </c>
       <c r="K58" s="19">
-        <v>27469948</v>
+        <v>28682693</v>
       </c>
       <c r="L58" s="19">
-        <v>28682693</v>
+        <v>30342012</v>
       </c>
       <c r="M58" s="19">
-        <v>30342012</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>39006297</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghezar\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F2D88D-5977-4E6A-B5BF-B376BDF9AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDFB05-BDE2-431C-B5A9-D1108FDB3378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>غزر-صنعتی زر ماکارون</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,30 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-02-31 (8)</t>
+  </si>
+  <si>
+    <t>1399-02-29 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-05 (11)</t>
+  </si>
+  <si>
+    <t>1399-05-06 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-18 (2)</t>
+  </si>
+  <si>
     <t>1399-10-23</t>
   </si>
   <si>
@@ -85,7 +130,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1402-02-28 (8)</t>
+    <t>1402-04-17 (9)</t>
   </si>
   <si>
     <t>1401-05-04 (2)</t>
@@ -97,7 +142,13 @@
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-28</t>
+    <t>1402-08-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-08-30 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -106,6 +157,9 @@
     <t>موجودی نقد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سرمایه گذاری کوتاه مدت</t>
   </si>
   <si>
@@ -140,9 +194,6 @@
   </si>
   <si>
     <t>پیش پرداخت های سرمایه ای</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,9 +793,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +813,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +839,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +865,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +889,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +915,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +941,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +965,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1011,98 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1115,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,206 +1141,366 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="15">
+        <v>86317</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="15">
+        <v>583277</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="15">
+        <v>576636</v>
+      </c>
+      <c r="J12" s="15">
+        <v>568651</v>
+      </c>
+      <c r="K12" s="15">
+        <v>193373</v>
+      </c>
+      <c r="L12" s="15">
         <v>655583</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>257065</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>569939</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>433607</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>219251</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>597068</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>1052149</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>628595</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>679136</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>876515</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>2370967</v>
+      </c>
+      <c r="W12" s="15">
+        <v>384219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11">
+        <v>66063</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="11">
+        <v>422</v>
+      </c>
+      <c r="J13" s="11">
+        <v>422</v>
+      </c>
+      <c r="K13" s="11">
+        <v>422</v>
+      </c>
+      <c r="L13" s="11">
         <v>16372</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>87114</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>463674</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>487575</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>487560</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>487561</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>487561</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>487561</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>312096</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>312513</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>312513</v>
+      </c>
+      <c r="W13" s="11">
+        <v>312513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2845977</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4851426</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2662367</v>
+      </c>
+      <c r="J14" s="15">
+        <v>2710519</v>
+      </c>
+      <c r="K14" s="15">
+        <v>7610776</v>
+      </c>
+      <c r="L14" s="15">
         <v>6978896</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="15">
         <v>7820736</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>12785471</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>10963363</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>11906179</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>6207483</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>11138040</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>12231983</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>16054825</v>
       </c>
-      <c r="M14" s="15">
-        <v>17199012</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="15">
+        <v>15932648</v>
+      </c>
+      <c r="V14" s="15">
+        <v>21045567</v>
+      </c>
+      <c r="W14" s="15">
+        <v>21467755</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="11">
+        <v>863564</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1219361</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1374191</v>
+      </c>
+      <c r="J15" s="11">
+        <v>974768</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1442604</v>
+      </c>
+      <c r="L15" s="11">
         <v>1515842</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>1558471</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>1667732</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>1167301</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>1582526</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>1509421</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>2532146</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>2819741</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>2694384</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>2440807</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>3024153</v>
+      </c>
+      <c r="W15" s="11">
+        <v>3430593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15">
+        <v>163944</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="15">
+        <v>322245</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1820790</v>
+      </c>
+      <c r="J16" s="15">
+        <v>3142332</v>
+      </c>
+      <c r="K16" s="15">
+        <v>2808073</v>
+      </c>
+      <c r="L16" s="15">
         <v>5243273</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>5522708</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>6425673</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>7230483</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>8983930</v>
       </c>
-      <c r="I16" s="15">
-        <v>9950829</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="Q16" s="15">
+        <v>9950828</v>
+      </c>
+      <c r="R16" s="15">
         <v>9104861</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>9293090</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>7708918</v>
       </c>
-      <c r="M16" s="15">
-        <v>7504654</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="15">
+        <v>6329810</v>
+      </c>
+      <c r="V16" s="15">
+        <v>7933231</v>
+      </c>
+      <c r="W16" s="15">
+        <v>8666447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>0</v>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
@@ -1167,62 +1517,122 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3959802</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="17">
+        <v>7042372</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="17">
+        <v>6434406</v>
+      </c>
+      <c r="J18" s="17">
+        <v>7396692</v>
+      </c>
+      <c r="K18" s="17">
+        <v>12055248</v>
+      </c>
+      <c r="L18" s="17">
         <v>14409966</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>15246094</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>21912489</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>20282329</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>23179446</v>
       </c>
-      <c r="I18" s="17">
-        <v>18752362</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="Q18" s="17">
+        <v>18752361</v>
+      </c>
+      <c r="R18" s="17">
         <v>24314757</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>25460970</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>27449359</v>
       </c>
-      <c r="M18" s="17">
-        <v>28333501</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="17">
+        <v>25892293</v>
+      </c>
+      <c r="V18" s="17">
+        <v>34686431</v>
+      </c>
+      <c r="W18" s="17">
+        <v>34261527</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>0</v>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
+      <c r="H19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
@@ -1239,62 +1649,122 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
+      <c r="D20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2351</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2351</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2351</v>
+      </c>
+      <c r="J20" s="15">
         <v>1786</v>
       </c>
-      <c r="E20" s="15">
+      <c r="K20" s="15">
+        <v>1786</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1786</v>
+      </c>
+      <c r="M20" s="15">
         <v>2363</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>2363</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>2363</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>2563</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>418920</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>874155</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>854355</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>418877</v>
       </c>
-      <c r="M20" s="15">
-        <v>1065820</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="15">
+        <v>1957968</v>
+      </c>
+      <c r="V20" s="15">
+        <v>3163508</v>
+      </c>
+      <c r="W20" s="15">
+        <v>419390</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
+      <c r="H21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="11">
         <v>0</v>
@@ -1311,134 +1781,254 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1776037</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1182019</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1108856</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1057778</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1010112</v>
+      </c>
+      <c r="L22" s="15">
         <v>1030283</v>
       </c>
-      <c r="E22" s="15">
+      <c r="M22" s="15">
         <v>1144794</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>1102753</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>1118786</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>1092553</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>1816106</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>2216837</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>2303219</v>
       </c>
-      <c r="L22" s="15">
+      <c r="T22" s="15">
         <v>2413866</v>
       </c>
-      <c r="M22" s="15">
+      <c r="U22" s="15">
         <v>9550205</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>9522223</v>
+      </c>
+      <c r="W22" s="15">
+        <v>11851913</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
+      <c r="D23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="11">
+        <v>14436</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="11">
+        <v>15139</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="11">
+        <v>16840</v>
+      </c>
+      <c r="J23" s="11">
+        <v>15192</v>
+      </c>
+      <c r="K23" s="11">
+        <v>13581</v>
+      </c>
+      <c r="L23" s="11">
         <v>12173</v>
       </c>
-      <c r="E23" s="11">
+      <c r="M23" s="11">
         <v>29899</v>
       </c>
-      <c r="F23" s="11">
+      <c r="N23" s="11">
         <v>26611</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>24952</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>23293</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>67571</v>
       </c>
-      <c r="J23" s="11">
+      <c r="R23" s="11">
         <v>64199</v>
       </c>
-      <c r="K23" s="11">
+      <c r="S23" s="11">
         <v>64149</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>59910</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>56771</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>52480</v>
+      </c>
+      <c r="W23" s="11">
+        <v>48146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
+      <c r="D25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
+      <c r="F25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
+      <c r="H25" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I25" s="11">
         <v>0</v>
@@ -1455,82 +2045,172 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1792824</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1199509</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1128047</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1074756</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1025479</v>
+      </c>
+      <c r="L26" s="17">
         <v>1044242</v>
       </c>
-      <c r="E26" s="17">
+      <c r="M26" s="17">
         <v>1177056</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>1131727</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>1146101</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>1118409</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>2302597</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>3155191</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>3221723</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>2892653</v>
       </c>
-      <c r="M26" s="17">
-        <v>10672796</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="17">
+        <v>11564944</v>
+      </c>
+      <c r="V26" s="17">
+        <v>12738211</v>
+      </c>
+      <c r="W26" s="17">
+        <v>12319449</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="D27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5752626</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="19">
+        <v>8241881</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="19">
+        <v>7562453</v>
+      </c>
+      <c r="J27" s="19">
+        <v>8471448</v>
+      </c>
+      <c r="K27" s="19">
+        <v>13080727</v>
+      </c>
+      <c r="L27" s="19">
         <v>15454208</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>16423150</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>23044216</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>21428430</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>24297855</v>
       </c>
-      <c r="I27" s="19">
-        <v>21054959</v>
-      </c>
-      <c r="J27" s="19">
+      <c r="Q27" s="19">
+        <v>21054958</v>
+      </c>
+      <c r="R27" s="19">
         <v>27469948</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>28682693</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>30342012</v>
       </c>
-      <c r="M27" s="19">
-        <v>39006297</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="19">
+        <v>37457237</v>
+      </c>
+      <c r="V27" s="19">
+        <v>47424642</v>
+      </c>
+      <c r="W27" s="19">
+        <v>46580976</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,242 +2223,432 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1965400</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="15">
+        <v>2750727</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="15">
+        <v>603553</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1041852</v>
+      </c>
+      <c r="K29" s="15">
+        <v>996250</v>
+      </c>
+      <c r="L29" s="15">
         <v>1850456</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>1422982</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>5665556</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>5730582</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>8883232</v>
       </c>
-      <c r="I29" s="15">
-        <v>5332863</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="Q29" s="15">
+        <v>4829894</v>
+      </c>
+      <c r="R29" s="15">
         <v>9828725</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>7159553</v>
       </c>
-      <c r="L29" s="15">
+      <c r="T29" s="15">
         <v>7320809</v>
       </c>
-      <c r="M29" s="15">
-        <v>6480159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U29" s="15">
+        <v>4961997</v>
+      </c>
+      <c r="V29" s="15">
+        <v>11850588</v>
+      </c>
+      <c r="W29" s="15">
+        <v>9400041</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="D31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1350</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="15">
+        <v>22869</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="15">
+        <v>51374</v>
+      </c>
+      <c r="J31" s="15">
+        <v>88225</v>
+      </c>
+      <c r="K31" s="15">
+        <v>162306</v>
+      </c>
+      <c r="L31" s="15">
         <v>179047</v>
       </c>
-      <c r="E31" s="15">
+      <c r="M31" s="15">
         <v>276930</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>468125</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>183304</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>105867</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>158472</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>154159</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>167693</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>259182</v>
       </c>
-      <c r="M31" s="15">
-        <v>348033</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="15">
+        <v>348034</v>
+      </c>
+      <c r="V31" s="15">
+        <v>341197</v>
+      </c>
+      <c r="W31" s="15">
+        <v>190670</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11">
+      <c r="D32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="11">
+        <v>93105</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="11">
+        <v>234133</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="11">
+        <v>584308</v>
+      </c>
+      <c r="J32" s="11">
+        <v>632376</v>
+      </c>
+      <c r="K32" s="11">
+        <v>652902</v>
+      </c>
+      <c r="L32" s="11">
         <v>550334</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>1308577</v>
       </c>
-      <c r="F32" s="11">
+      <c r="N32" s="11">
         <v>752562</v>
       </c>
-      <c r="G32" s="11">
+      <c r="O32" s="11">
         <v>561393</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>450749</v>
       </c>
-      <c r="I32" s="11">
-        <v>45336</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="Q32" s="11">
+        <v>548304</v>
+      </c>
+      <c r="R32" s="11">
         <v>391401</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>976885</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>894322</v>
       </c>
-      <c r="M32" s="11">
-        <v>81059</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="11">
+        <v>388569</v>
+      </c>
+      <c r="V32" s="11">
+        <v>834147</v>
+      </c>
+      <c r="W32" s="11">
+        <v>1035285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="D33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="15">
+        <v>50561</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="15">
+        <v>17561</v>
+      </c>
+      <c r="J33" s="15">
+        <v>22617</v>
+      </c>
+      <c r="K33" s="15">
+        <v>592771</v>
+      </c>
+      <c r="L33" s="15">
         <v>518454</v>
       </c>
-      <c r="E33" s="15">
+      <c r="M33" s="15">
         <v>19125</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>18990</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>77070</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>74668</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>52047</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>51945</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>344702</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>239235</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>95780</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>98138</v>
+      </c>
+      <c r="W33" s="15">
+        <v>113568</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11">
+      <c r="D34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1949630</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2481422</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="11">
+        <v>2510874</v>
+      </c>
+      <c r="J34" s="11">
+        <v>1968007</v>
+      </c>
+      <c r="K34" s="11">
+        <v>5253955</v>
+      </c>
+      <c r="L34" s="11">
         <v>5129856</v>
       </c>
-      <c r="E34" s="11">
+      <c r="M34" s="11">
         <v>5502884</v>
       </c>
-      <c r="F34" s="11">
+      <c r="N34" s="11">
         <v>5654980</v>
       </c>
-      <c r="G34" s="11">
+      <c r="O34" s="11">
         <v>3698564</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="11">
         <v>2493421</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q34" s="11">
         <v>3375463</v>
       </c>
-      <c r="J34" s="11">
+      <c r="R34" s="11">
         <v>2742536</v>
       </c>
-      <c r="K34" s="11">
+      <c r="S34" s="11">
         <v>5600271</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>5761613</v>
       </c>
-      <c r="M34" s="11">
+      <c r="U34" s="11">
         <v>5221109</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V34" s="11">
+        <v>5306915</v>
+      </c>
+      <c r="W34" s="11">
+        <v>6388347</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15">
-        <v>0</v>
+      <c r="D35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
+      <c r="F35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
+        <v>21217</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I35" s="15">
         <v>0</v>
@@ -1795,26 +2665,56 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11">
-        <v>0</v>
+      <c r="D36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11">
-        <v>0</v>
+      <c r="F36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
@@ -1831,62 +2731,122 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17">
+      <c r="D37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="17">
+        <v>4060046</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="17">
+        <v>5510368</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="17">
+        <v>3767670</v>
+      </c>
+      <c r="J37" s="17">
+        <v>3753077</v>
+      </c>
+      <c r="K37" s="17">
+        <v>7658184</v>
+      </c>
+      <c r="L37" s="17">
         <v>8228147</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>8530498</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>12560213</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>10250913</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>12007937</v>
       </c>
-      <c r="I37" s="17">
-        <v>8964181</v>
-      </c>
-      <c r="J37" s="17">
+      <c r="Q37" s="17">
+        <v>8964180</v>
+      </c>
+      <c r="R37" s="17">
         <v>13168766</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>14249104</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>14475161</v>
       </c>
-      <c r="M37" s="17">
-        <v>12226140</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U37" s="17">
+        <v>11015489</v>
+      </c>
+      <c r="V37" s="17">
+        <v>18430985</v>
+      </c>
+      <c r="W37" s="17">
+        <v>17127911</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
+      <c r="F38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
+      <c r="H38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I38" s="11">
         <v>0</v>
@@ -1903,62 +2863,122 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
+      <c r="D40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
+      <c r="F40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
+      <c r="H40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
@@ -1975,118 +2995,238 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="D41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="15">
+        <v>57299</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="15">
+        <v>82089</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>6170</v>
+      </c>
+      <c r="K41" s="15">
+        <v>11661</v>
+      </c>
+      <c r="L41" s="15">
         <v>14973</v>
       </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-      <c r="I41" s="15">
-        <v>0</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
       <c r="M41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0</v>
+      </c>
+      <c r="P41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>0</v>
+      </c>
+      <c r="R41" s="15">
+        <v>0</v>
+      </c>
+      <c r="S41" s="15">
+        <v>0</v>
+      </c>
+      <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15">
+        <v>0</v>
+      </c>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="19">
+      <c r="D42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="19">
+        <v>57299</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="19">
+        <v>82089</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>6170</v>
+      </c>
+      <c r="K42" s="19">
+        <v>11661</v>
+      </c>
+      <c r="L42" s="19">
         <v>14973</v>
       </c>
-      <c r="E42" s="19">
-        <v>0</v>
-      </c>
-      <c r="F42" s="19">
-        <v>0</v>
-      </c>
-      <c r="G42" s="19">
-        <v>0</v>
-      </c>
-      <c r="H42" s="19">
-        <v>0</v>
-      </c>
-      <c r="I42" s="19">
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
-        <v>0</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
       <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>0</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0</v>
+      </c>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
         <v>861364</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>861364</v>
+      </c>
+      <c r="W42" s="19">
+        <v>846409</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17">
+      <c r="D43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="17">
+        <v>4117345</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="17">
+        <v>5592457</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="17">
+        <v>3767670</v>
+      </c>
+      <c r="J43" s="17">
+        <v>3759247</v>
+      </c>
+      <c r="K43" s="17">
+        <v>7669845</v>
+      </c>
+      <c r="L43" s="17">
         <v>8243120</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>8530498</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>12560213</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>10250913</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>12007937</v>
       </c>
-      <c r="I43" s="17">
-        <v>8964181</v>
-      </c>
-      <c r="J43" s="17">
+      <c r="Q43" s="17">
+        <v>8964180</v>
+      </c>
+      <c r="R43" s="17">
         <v>13168766</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>14249104</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>14475161</v>
       </c>
-      <c r="M43" s="17">
-        <v>13087504</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U43" s="17">
+        <v>11876853</v>
+      </c>
+      <c r="V43" s="17">
+        <v>19292349</v>
+      </c>
+      <c r="W43" s="17">
+        <v>17974320</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,62 +3239,102 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15">
+      <c r="D45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="15">
         <v>1600000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="J45" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="M45" s="15">
         <v>3200000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="N45" s="15">
         <v>3200000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="O45" s="15">
         <v>8000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="P45" s="15">
         <v>8000000</v>
       </c>
-      <c r="I45" s="15">
+      <c r="Q45" s="15">
         <v>8000000</v>
       </c>
-      <c r="J45" s="15">
+      <c r="R45" s="15">
         <v>8000000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="S45" s="15">
         <v>8000000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="T45" s="15">
         <v>8000000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="U45" s="15">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V45" s="15">
+        <v>18000000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
+      <c r="D46" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
       </c>
-      <c r="F46" s="11">
-        <v>0</v>
+      <c r="F46" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="H46" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I46" s="11">
         <v>0</v>
@@ -2171,26 +3351,56 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15">
-        <v>0</v>
+      <c r="D47" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
+        <v>300000</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
+        <v>300000</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
@@ -2207,134 +3417,254 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>0</v>
+      <c r="D48" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
         <v>-812060</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
         <v>-812049</v>
       </c>
-      <c r="J48" s="11">
+      <c r="R48" s="11">
         <v>-812049</v>
       </c>
-      <c r="K48" s="11">
+      <c r="S48" s="11">
         <v>-770206</v>
       </c>
-      <c r="L48" s="11">
+      <c r="T48" s="11">
         <v>-770206</v>
       </c>
-      <c r="M48" s="11">
+      <c r="U48" s="11">
         <v>-729354</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V48" s="11">
+        <v>-729354</v>
+      </c>
+      <c r="W48" s="11">
+        <v>-711071</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
+      <c r="F49" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
       </c>
-      <c r="H49" s="15">
-        <v>0</v>
+      <c r="H49" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I49" s="15">
         <v>0</v>
       </c>
       <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
         <v>-1845</v>
       </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11">
+      <c r="D50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="11">
+        <v>32618</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="11">
+        <v>32618</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="11">
+        <v>147621</v>
+      </c>
+      <c r="J50" s="11">
+        <v>147621</v>
+      </c>
+      <c r="K50" s="11">
+        <v>147621</v>
+      </c>
+      <c r="L50" s="11">
         <v>160000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>320000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>320000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>462844</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>320000</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>569198</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>679718</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>569198</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>569198</v>
       </c>
-      <c r="M50" s="11">
-        <v>952187</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U50" s="11">
+        <v>958403</v>
+      </c>
+      <c r="V50" s="11">
+        <v>958403</v>
+      </c>
+      <c r="W50" s="11">
+        <v>958403</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15">
-        <v>0</v>
+      <c r="D51" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
-      <c r="F51" s="15">
-        <v>0</v>
+      <c r="F51" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
+      <c r="H51" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I51" s="15">
         <v>0</v>
@@ -2351,62 +3681,122 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15">
-        <v>0</v>
+      <c r="D53" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
+      <c r="F53" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G53" s="15">
         <v>0</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
+      <c r="H53" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I53" s="15">
         <v>0</v>
@@ -2423,62 +3813,122 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>0</v>
+      <c r="D55" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
       </c>
-      <c r="F55" s="15">
-        <v>0</v>
+      <c r="F55" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
       </c>
-      <c r="H55" s="15">
-        <v>0</v>
+      <c r="H55" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I55" s="15">
         <v>0</v>
@@ -2495,116 +3945,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="D56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2663</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1016806</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2047162</v>
+      </c>
+      <c r="J56" s="11">
+        <v>2964580</v>
+      </c>
+      <c r="K56" s="11">
+        <v>3663261</v>
+      </c>
+      <c r="L56" s="11">
         <v>5451088</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>5184712</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>6964003</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>2714673</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>3969918</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>4333629</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>6435358</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>6634597</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>8067859</v>
       </c>
-      <c r="M56" s="11">
-        <v>7695960</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U56" s="11">
+        <v>7351335</v>
+      </c>
+      <c r="V56" s="11">
+        <v>9903244</v>
+      </c>
+      <c r="W56" s="11">
+        <v>10359324</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17">
+      <c r="D57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1635281</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="17">
+        <v>2649424</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="17">
+        <v>3794783</v>
+      </c>
+      <c r="J57" s="17">
+        <v>4712201</v>
+      </c>
+      <c r="K57" s="17">
+        <v>5410882</v>
+      </c>
+      <c r="L57" s="17">
         <v>7211088</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>7892652</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>10484003</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>11177517</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>12289918</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>12090778</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>14301182</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>14433589</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>15866851</v>
       </c>
-      <c r="M57" s="17">
-        <v>25918793</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U57" s="17">
+        <v>25580384</v>
+      </c>
+      <c r="V57" s="17">
+        <v>28132293</v>
+      </c>
+      <c r="W57" s="17">
+        <v>28606656</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19">
+      <c r="D58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="19">
+        <v>5752626</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="19">
+        <v>8241881</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="19">
+        <v>7562453</v>
+      </c>
+      <c r="J58" s="19">
+        <v>8471448</v>
+      </c>
+      <c r="K58" s="19">
+        <v>13080727</v>
+      </c>
+      <c r="L58" s="19">
         <v>15454208</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>16423150</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>23044216</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>21428430</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>24297855</v>
       </c>
-      <c r="I58" s="19">
-        <v>21054959</v>
-      </c>
-      <c r="J58" s="19">
+      <c r="Q58" s="19">
+        <v>21054958</v>
+      </c>
+      <c r="R58" s="19">
         <v>27469948</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>28682693</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>30342012</v>
       </c>
-      <c r="M58" s="19">
-        <v>39006297</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U58" s="19">
+        <v>37457237</v>
+      </c>
+      <c r="V58" s="19">
+        <v>47424642</v>
+      </c>
+      <c r="W58" s="19">
+        <v>46580976</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4187,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
